--- a/training_data/2011/basic_hitting.xlsx
+++ b/training_data/2011/basic_hitting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex_1/Desktop/MVP-Predictor/training_data/2011/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED8292ED-D6EC-1943-B9BD-90BDD9147966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DFC388-5D33-584B-B778-D50E9D5F71D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{68E754AE-61D2-EF4B-8720-0CF6A3841BE8}"/>
+    <workbookView xWindow="3840" yWindow="3840" windowWidth="28040" windowHeight="17440" xr2:uid="{68E754AE-61D2-EF4B-8720-0CF6A3841BE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4037,8 +4037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87132BD-A8FE-454B-818D-8A4C1EA7F3AF}">
   <dimension ref="A4:J1332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1319" workbookViewId="0">
-      <selection activeCell="B1333" sqref="B1333:J1333"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
